--- a/data/trans_orig/P16A10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Provincia-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2751,7 +2751,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4948,7 +4948,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7145,7 +7145,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>13592</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8266</v>
+        <v>8164</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21568</v>
+        <v>21816</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04978600807865486</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03027760287641759</v>
+        <v>0.02990224546670146</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07900019543598806</v>
+        <v>0.07990919834247935</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -765,19 +765,19 @@
         <v>8777</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4231</v>
+        <v>3995</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16657</v>
+        <v>16929</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03365056917118603</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01622269065230616</v>
+        <v>0.01531659247227256</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06386063202272103</v>
+        <v>0.06490290098420488</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -786,19 +786,19 @@
         <v>22369</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15267</v>
+        <v>13921</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33343</v>
+        <v>32180</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04190223434687804</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02859886708245847</v>
+        <v>0.02607722818616652</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0624582604193312</v>
+        <v>0.06027947994815117</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>259418</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>251442</v>
+        <v>251194</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>264744</v>
+        <v>264846</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9502139919213451</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9209998045640121</v>
+        <v>0.9200908016575198</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9697223971235825</v>
+        <v>0.9700977545332984</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>237</v>
@@ -836,19 +836,19 @@
         <v>252061</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>244181</v>
+        <v>243909</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>256607</v>
+        <v>256843</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.966349430828814</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9361393679772789</v>
+        <v>0.9350970990157947</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9837773093476938</v>
+        <v>0.9846834075277274</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>493</v>
@@ -857,19 +857,19 @@
         <v>511479</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>500505</v>
+        <v>501668</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>518581</v>
+        <v>519927</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.958097765653122</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9375417395806684</v>
+        <v>0.9397205200518488</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9714011329175415</v>
+        <v>0.9739227718138334</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>32963</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23494</v>
+        <v>23375</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45484</v>
+        <v>45127</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0668527875358057</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04764695152649821</v>
+        <v>0.04740649107185924</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09224651450487084</v>
+        <v>0.09152173848270009</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -982,19 +982,19 @@
         <v>26461</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17563</v>
+        <v>17707</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37388</v>
+        <v>37547</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05250648554338183</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03485062064058984</v>
+        <v>0.03513553261458117</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07419022823854293</v>
+        <v>0.07450507350351891</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -1003,19 +1003,19 @@
         <v>59424</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47095</v>
+        <v>45073</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77208</v>
+        <v>76387</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05960140324273001</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0472351261552433</v>
+        <v>0.04520756582569469</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07743889884896671</v>
+        <v>0.07661453001738343</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>460112</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>447591</v>
+        <v>447948</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>469581</v>
+        <v>469700</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9331472124641943</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9077534854951292</v>
+        <v>0.9084782615172999</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9523530484735018</v>
+        <v>0.9525935089281408</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>473</v>
@@ -1053,19 +1053,19 @@
         <v>477488</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>466561</v>
+        <v>466402</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>486386</v>
+        <v>486242</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9474935144566182</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9258097717614571</v>
+        <v>0.9254949264964811</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9651493793594101</v>
+        <v>0.9648644673854189</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>907</v>
@@ -1074,19 +1074,19 @@
         <v>937600</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>919816</v>
+        <v>920637</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>949929</v>
+        <v>951951</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.94039859675727</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9225611011510333</v>
+        <v>0.9233854699826165</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9527648738447566</v>
+        <v>0.9547924341743053</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>13830</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8203</v>
+        <v>8346</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21291</v>
+        <v>23840</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0433764030756127</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0257274231458821</v>
+        <v>0.02617486392751046</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06677576684714787</v>
+        <v>0.07476961531222751</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1199,19 +1199,19 @@
         <v>17306</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10341</v>
+        <v>10098</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26982</v>
+        <v>26365</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05159734038026656</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03083161473645595</v>
+        <v>0.03010624991564977</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08044305502867298</v>
+        <v>0.0786056664913278</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -1220,19 +1220,19 @@
         <v>31137</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21929</v>
+        <v>21753</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44142</v>
+        <v>42675</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04759095055359532</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03351761656713993</v>
+        <v>0.03324910682408311</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06746893607100067</v>
+        <v>0.06522724997415406</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>305016</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>297555</v>
+        <v>295006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310643</v>
+        <v>310500</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9566235969243873</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9332242331528521</v>
+        <v>0.9252303846877725</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9742725768541178</v>
+        <v>0.9738251360724896</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>317</v>
@@ -1270,19 +1270,19 @@
         <v>318106</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>308430</v>
+        <v>309047</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>325071</v>
+        <v>325314</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9484026596197335</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.919556944971327</v>
+        <v>0.9213943335086723</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.969168385263544</v>
+        <v>0.9698937500843503</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>613</v>
@@ -1291,19 +1291,19 @@
         <v>623121</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>610116</v>
+        <v>611583</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>632329</v>
+        <v>632505</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9524090494464047</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9325310639289996</v>
+        <v>0.934772750025846</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9664823834328602</v>
+        <v>0.9667508931759169</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>14301</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8224</v>
+        <v>8844</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22420</v>
+        <v>22445</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03987110050351236</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0229292479256636</v>
+        <v>0.02465771938505593</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06250925125703552</v>
+        <v>0.06257850769900478</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -1416,19 +1416,19 @@
         <v>21861</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13791</v>
+        <v>14177</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31247</v>
+        <v>31866</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05885204081229415</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03712714195732156</v>
+        <v>0.03816532642884354</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0841198863178661</v>
+        <v>0.08578730081643759</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -1437,19 +1437,19 @@
         <v>36162</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25600</v>
+        <v>26051</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48628</v>
+        <v>47624</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04952775305269379</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03506228413241742</v>
+        <v>0.03568033945859116</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06660263840492522</v>
+        <v>0.06522643898801828</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>344370</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>336251</v>
+        <v>336226</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>350447</v>
+        <v>349827</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9601288994964876</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9374907487429642</v>
+        <v>0.9374214923009951</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9770707520743362</v>
+        <v>0.975342280614944</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>362</v>
@@ -1487,19 +1487,19 @@
         <v>349595</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>340209</v>
+        <v>339590</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>357665</v>
+        <v>357279</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9411479591877059</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9158801136821344</v>
+        <v>0.9142126991835624</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9628728580426785</v>
+        <v>0.9618346735711566</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>708</v>
@@ -1508,19 +1508,19 @@
         <v>693965</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>681499</v>
+        <v>682503</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>704527</v>
+        <v>704076</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9504722469473063</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9333973615950748</v>
+        <v>0.9347735610119817</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9649377158675825</v>
+        <v>0.9643196605414087</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>16015</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9595</v>
+        <v>9583</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24099</v>
+        <v>24707</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07877391705318916</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04719470717571845</v>
+        <v>0.04713557485669791</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1185359065686171</v>
+        <v>0.1215228096708897</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1633,19 +1633,19 @@
         <v>10361</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5062</v>
+        <v>5136</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18171</v>
+        <v>18099</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0498913677614423</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02437546203159297</v>
+        <v>0.02473105207569632</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08750051039615449</v>
+        <v>0.08715415124017264</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -1654,19 +1654,19 @@
         <v>26376</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17022</v>
+        <v>17710</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36544</v>
+        <v>36850</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06417943811766891</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04141772311630078</v>
+        <v>0.04309367965754416</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08891989283804021</v>
+        <v>0.08966398742872599</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>187293</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>179209</v>
+        <v>178601</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>193713</v>
+        <v>193725</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9212260829468109</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8814640934313829</v>
+        <v>0.8784771903291102</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9528052928242815</v>
+        <v>0.9528644251433022</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>188</v>
@@ -1704,19 +1704,19 @@
         <v>197307</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>189497</v>
+        <v>189569</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202606</v>
+        <v>202532</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9501086322385577</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9124994896038459</v>
+        <v>0.9128458487598275</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9756245379684072</v>
+        <v>0.9752689479243037</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>376</v>
@@ -1725,19 +1725,19 @@
         <v>384600</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>374432</v>
+        <v>374126</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>393954</v>
+        <v>393266</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9358205618823311</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9110801071619595</v>
+        <v>0.9103360125712738</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9585822768836991</v>
+        <v>0.9569063203424556</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>17371</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11348</v>
+        <v>11302</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26063</v>
+        <v>27683</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06414535391728055</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04190436194056207</v>
+        <v>0.0417356745084829</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09624101794701426</v>
+        <v>0.1022207637781526</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -1850,19 +1850,19 @@
         <v>19210</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12295</v>
+        <v>11895</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29183</v>
+        <v>29663</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06906418630533655</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04420445775562359</v>
+        <v>0.0427653008406387</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1049196955230045</v>
+        <v>0.1066461038682288</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -1871,19 +1871,19 @@
         <v>36581</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25552</v>
+        <v>26761</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49217</v>
+        <v>49594</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06663762323950286</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04654605287106142</v>
+        <v>0.04874985959092238</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08965548495573061</v>
+        <v>0.09034205375669915</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>253440</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>244748</v>
+        <v>243128</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>259463</v>
+        <v>259509</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9358546460827195</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9037589820529858</v>
+        <v>0.8977792362218471</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9580956380594379</v>
+        <v>0.958264325491517</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>252</v>
@@ -1921,19 +1921,19 @@
         <v>258934</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>248961</v>
+        <v>248481</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>265849</v>
+        <v>266249</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9309358136946635</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8950803044769956</v>
+        <v>0.8933538961317712</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9557955422443765</v>
+        <v>0.9572346991593612</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>500</v>
@@ -1942,19 +1942,19 @@
         <v>512374</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>499738</v>
+        <v>499361</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>523403</v>
+        <v>522194</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9333623767604972</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9103445150442694</v>
+        <v>0.9096579462433012</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9534539471289386</v>
+        <v>0.9512501404090777</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>26309</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18101</v>
+        <v>18196</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37404</v>
+        <v>37997</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04277762561293255</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02943151066946169</v>
+        <v>0.02958555130655662</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06081738660197288</v>
+        <v>0.06178034562137033</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -2067,19 +2067,19 @@
         <v>30648</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21112</v>
+        <v>20530</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>43115</v>
+        <v>43016</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04802176010275807</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03308013744853384</v>
+        <v>0.03216788702947686</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06755462666957887</v>
+        <v>0.06739932517028888</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>58</v>
@@ -2088,19 +2088,19 @@
         <v>56958</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44471</v>
+        <v>44442</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74116</v>
+        <v>74470</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04544821571116409</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0354844801205039</v>
+        <v>0.03546145016632737</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0591395051986507</v>
+        <v>0.05942153112533396</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>588718</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>577623</v>
+        <v>577030</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>596926</v>
+        <v>596831</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9572223743870675</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9391826133980277</v>
+        <v>0.9382196543786296</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9705684893305384</v>
+        <v>0.9704144486934434</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>591</v>
@@ -2138,19 +2138,19 @@
         <v>607571</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>595104</v>
+        <v>595203</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>617107</v>
+        <v>617689</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.951978239897242</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9324453733304203</v>
+        <v>0.9326006748297102</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9669198625514661</v>
+        <v>0.9678321129705231</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1161</v>
@@ -2159,19 +2159,19 @@
         <v>1196288</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1179130</v>
+        <v>1178776</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1208775</v>
+        <v>1208804</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9545517842888359</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9408604948013493</v>
+        <v>0.9405784688746652</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.964515519879496</v>
+        <v>0.9645385498336725</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>42924</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32370</v>
+        <v>30747</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57859</v>
+        <v>57174</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05778917205185845</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04358026335804162</v>
+        <v>0.04139478641156787</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07789500785400161</v>
+        <v>0.07697371950249901</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>40</v>
@@ -2284,19 +2284,19 @@
         <v>44320</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32140</v>
+        <v>32755</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>58009</v>
+        <v>58149</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05656535428234286</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04102073592883031</v>
+        <v>0.04180583610669528</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07403688505212291</v>
+        <v>0.07421607768863131</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>84</v>
@@ -2305,19 +2305,19 @@
         <v>87244</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>70447</v>
+        <v>71208</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>108175</v>
+        <v>107886</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05716093231948825</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04615572761208471</v>
+        <v>0.04665442540529564</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07087456205019324</v>
+        <v>0.07068552783921067</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>699853</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>684918</v>
+        <v>685603</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>710407</v>
+        <v>712030</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9422108279481416</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9221049921460002</v>
+        <v>0.9230262804975006</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9564197366419587</v>
+        <v>0.9586052135884321</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>705</v>
@@ -2355,19 +2355,19 @@
         <v>739191</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>725502</v>
+        <v>725362</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>751371</v>
+        <v>750756</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9434346457176571</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9259631149478772</v>
+        <v>0.9257839223113685</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9589792640711697</v>
+        <v>0.9581941638933047</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1396</v>
@@ -2376,19 +2376,19 @@
         <v>1439044</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1418113</v>
+        <v>1418402</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1455841</v>
+        <v>1455080</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9428390676805117</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9291254379498068</v>
+        <v>0.9293144721607894</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9538442723879154</v>
+        <v>0.9533455745947045</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>177307</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>153998</v>
+        <v>152246</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>203007</v>
+        <v>205139</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05413086828946344</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04701473760902383</v>
+        <v>0.04647995210003563</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06197690694846397</v>
+        <v>0.06262788442612696</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>172</v>
@@ -2501,19 +2501,19 @@
         <v>178944</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>154238</v>
+        <v>155720</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>206959</v>
+        <v>212093</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05295454841310784</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04564337302289133</v>
+        <v>0.04608203556340804</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06124516687195319</v>
+        <v>0.06276424115038762</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>356</v>
@@ -2522,19 +2522,19 @@
         <v>356251</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>319172</v>
+        <v>320578</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>390741</v>
+        <v>396093</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05353354556355526</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04796178708258186</v>
+        <v>0.04817304363647343</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05871641829492615</v>
+        <v>0.05952064703266779</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3098218</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3072518</v>
+        <v>3070386</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3121527</v>
+        <v>3123279</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9458691317105365</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.938023093051536</v>
+        <v>0.937372115573873</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9529852623909761</v>
+        <v>0.9535200478999643</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3125</v>
@@ -2572,19 +2572,19 @@
         <v>3200253</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3172238</v>
+        <v>3167104</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3224959</v>
+        <v>3223477</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9470454515868921</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9387548331280472</v>
+        <v>0.9372357588496124</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9543566269771088</v>
+        <v>0.953917964436592</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6154</v>
@@ -2593,19 +2593,19 @@
         <v>6298471</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6263981</v>
+        <v>6258629</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6335550</v>
+        <v>6334144</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9464664544364447</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9412835817050739</v>
+        <v>0.9404793529673322</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9520382129174182</v>
+        <v>0.9518269563635265</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>14700</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7621</v>
+        <v>8143</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24333</v>
+        <v>27133</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05051395132662496</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0261867108996467</v>
+        <v>0.02798201410669762</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08361436918554906</v>
+        <v>0.09323325222169017</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2962,19 +2962,19 @@
         <v>15653</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8839</v>
+        <v>8467</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26333</v>
+        <v>24020</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0550822596249813</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03110379371186712</v>
+        <v>0.02979540416180067</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09266360872679255</v>
+        <v>0.08452399271178522</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -2983,19 +2983,19 @@
         <v>30354</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19836</v>
+        <v>20036</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42052</v>
+        <v>41464</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05277093695614989</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03448602071436811</v>
+        <v>0.03483291465019139</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07310872332502749</v>
+        <v>0.07208683607173484</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>276318</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>266685</v>
+        <v>263885</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>283397</v>
+        <v>282875</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.949486048673375</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9163856308144505</v>
+        <v>0.9067667477783097</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9738132891003533</v>
+        <v>0.9720179858933019</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>239</v>
@@ -3033,19 +3033,19 @@
         <v>268524</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>257844</v>
+        <v>260157</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>275338</v>
+        <v>275710</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9449177403750187</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9073363912732075</v>
+        <v>0.915476007288215</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9688962062881332</v>
+        <v>0.9702045958381994</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>505</v>
@@ -3054,19 +3054,19 @@
         <v>544841</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>533143</v>
+        <v>533731</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>555359</v>
+        <v>555159</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9472290630438501</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9268912766749725</v>
+        <v>0.9279131639282652</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9655139792856317</v>
+        <v>0.9651670853498087</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>19868</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12362</v>
+        <v>11799</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31765</v>
+        <v>32157</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03930099541292267</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02445386305911958</v>
+        <v>0.02333970731659227</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06283457724911028</v>
+        <v>0.06361116843080093</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -3179,19 +3179,19 @@
         <v>26665</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18290</v>
+        <v>17017</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38942</v>
+        <v>37719</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05110899121161232</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03505640861733215</v>
+        <v>0.03261609137429661</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07463947352729249</v>
+        <v>0.07229440272007046</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -3200,19 +3200,19 @@
         <v>46533</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33638</v>
+        <v>34313</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61782</v>
+        <v>60800</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0452981465246023</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03274494754401865</v>
+        <v>0.03340242992461466</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06014216453041491</v>
+        <v>0.05918596374823242</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>485659</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>473762</v>
+        <v>473370</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>493165</v>
+        <v>493728</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9606990045870774</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9371654227508897</v>
+        <v>0.9363888315691985</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9755461369408804</v>
+        <v>0.9766602926834075</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>453</v>
@@ -3250,19 +3250,19 @@
         <v>495070</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>482793</v>
+        <v>484016</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>503445</v>
+        <v>504718</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9488910087883877</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9253605264727075</v>
+        <v>0.9277055972799296</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9649435913826681</v>
+        <v>0.9673839086257034</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>907</v>
@@ -3271,19 +3271,19 @@
         <v>980730</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>965481</v>
+        <v>966463</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>993625</v>
+        <v>992950</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9547018534753977</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.939857835469585</v>
+        <v>0.9408140362517675</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9672550524559813</v>
+        <v>0.9665975700753854</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>20500</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12287</v>
+        <v>12446</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30617</v>
+        <v>31581</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06344373055731799</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03802626118364323</v>
+        <v>0.03851973068647393</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09475501900270719</v>
+        <v>0.09773893140738445</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -3396,19 +3396,19 @@
         <v>22358</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14514</v>
+        <v>14899</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34129</v>
+        <v>31875</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06556093373091336</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04256134977120512</v>
+        <v>0.04368943560555093</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1000781938817937</v>
+        <v>0.09346996036003515</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -3417,19 +3417,19 @@
         <v>42857</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31974</v>
+        <v>31204</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59908</v>
+        <v>55926</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06453087010667261</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04814419331850197</v>
+        <v>0.04698392134955601</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09020461472410167</v>
+        <v>0.08420794544266441</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>302616</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>292499</v>
+        <v>291535</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310829</v>
+        <v>310670</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.936556269442682</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9052449809972928</v>
+        <v>0.9022610685926157</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9619737388163567</v>
+        <v>0.9614802693135261</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>296</v>
@@ -3467,19 +3467,19 @@
         <v>318662</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>306891</v>
+        <v>309145</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>326506</v>
+        <v>326121</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9344390662690867</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8999218061182063</v>
+        <v>0.9065300396399648</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.957438650228795</v>
+        <v>0.9563105643944491</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>595</v>
@@ -3488,19 +3488,19 @@
         <v>621279</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>604228</v>
+        <v>608210</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>632162</v>
+        <v>632932</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9354691298933274</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.909795385275899</v>
+        <v>0.9157920545573363</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9518558066814981</v>
+        <v>0.9530160786504442</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>27495</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18144</v>
+        <v>17491</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39811</v>
+        <v>39045</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07351901773844295</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04851594842762365</v>
+        <v>0.04676840599671706</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1064523812444183</v>
+        <v>0.1044031109823408</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -3613,19 +3613,19 @@
         <v>19324</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11956</v>
+        <v>12054</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29123</v>
+        <v>30197</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04980848830392568</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03081750005699507</v>
+        <v>0.03107035880602754</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07506511965239912</v>
+        <v>0.07783326402919173</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -3634,19 +3634,19 @@
         <v>46819</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34550</v>
+        <v>34140</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63212</v>
+        <v>61635</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06144605004281627</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0453438846408505</v>
+        <v>0.04480540593428484</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08295955402734374</v>
+        <v>0.08089075966140095</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>346487</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>334171</v>
+        <v>334937</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>355838</v>
+        <v>356491</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9264809822615571</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8935476187555818</v>
+        <v>0.8955968890176591</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9514840515723764</v>
+        <v>0.9532315940032828</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>351</v>
@@ -3684,19 +3684,19 @@
         <v>368650</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>358851</v>
+        <v>357777</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>376018</v>
+        <v>375920</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9501915116960743</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.924934880347601</v>
+        <v>0.9221667359708086</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.969182499943005</v>
+        <v>0.9689296411939725</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>670</v>
@@ -3705,19 +3705,19 @@
         <v>715137</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>698744</v>
+        <v>700321</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>727406</v>
+        <v>727816</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9385539499571838</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9170404459726557</v>
+        <v>0.919109240338599</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9546561153591494</v>
+        <v>0.9551945940657148</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>13324</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7590</v>
+        <v>7583</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22872</v>
+        <v>22017</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06266437208800958</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03569765837660916</v>
+        <v>0.03566261287244751</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1075735654946515</v>
+        <v>0.1035537898294508</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -3830,19 +3830,19 @@
         <v>13456</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7825</v>
+        <v>7237</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22939</v>
+        <v>21480</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06127539698594539</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03563419028047606</v>
+        <v>0.03295614688063516</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1044609836936635</v>
+        <v>0.09781843652330044</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -3851,19 +3851,19 @@
         <v>26779</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18165</v>
+        <v>18079</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38568</v>
+        <v>39037</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06195868015688993</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04202750914691258</v>
+        <v>0.04182864376750191</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08923546554092729</v>
+        <v>0.09031942516377413</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>199294</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>189746</v>
+        <v>190601</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>205028</v>
+        <v>205035</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9373356279119904</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8924264345053484</v>
+        <v>0.8964462101705492</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9643023416233908</v>
+        <v>0.9643373871275525</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>199</v>
@@ -3901,19 +3901,19 @@
         <v>206135</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>196652</v>
+        <v>198111</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>211766</v>
+        <v>212354</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9387246030140546</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8955390163063368</v>
+        <v>0.9021815634766999</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9643658097195253</v>
+        <v>0.9670438531193648</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>383</v>
@@ -3922,19 +3922,19 @@
         <v>405430</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>393641</v>
+        <v>393172</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>414044</v>
+        <v>414130</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9380413198431101</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9107645344590725</v>
+        <v>0.9096805748362254</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9579724908530874</v>
+        <v>0.9581713562324979</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>17710</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10181</v>
+        <v>11257</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26372</v>
+        <v>28635</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06464082844687701</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03716042332092866</v>
+        <v>0.04108620384957896</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09625431603694859</v>
+        <v>0.104513505128289</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -4047,19 +4047,19 @@
         <v>18795</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10428</v>
+        <v>11637</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28179</v>
+        <v>29608</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06733083883309464</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03735697224701808</v>
+        <v>0.04168929776336568</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1009508050810681</v>
+        <v>0.1060684990024589</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -4068,19 +4068,19 @@
         <v>36505</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26402</v>
+        <v>26319</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49266</v>
+        <v>50227</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06599837950633722</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04773295657002107</v>
+        <v>0.04758355015287064</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08906859171804177</v>
+        <v>0.09080661472143227</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>256271</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>247609</v>
+        <v>245346</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>263800</v>
+        <v>262724</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.935359171553123</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9037456839630515</v>
+        <v>0.8954864948717114</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9628395766790714</v>
+        <v>0.958913796150421</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>250</v>
@@ -4118,19 +4118,19 @@
         <v>260345</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>250961</v>
+        <v>249532</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>268712</v>
+        <v>267503</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9326691611669053</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8990491949189309</v>
+        <v>0.893931500997541</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9626430277529816</v>
+        <v>0.9583107022366343</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>494</v>
@@ -4139,19 +4139,19 @@
         <v>516616</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>503855</v>
+        <v>502894</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>526719</v>
+        <v>526802</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9340016204936628</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9109314082819583</v>
+        <v>0.9091933852785676</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9522670434299789</v>
+        <v>0.9524164498471294</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>43094</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32003</v>
+        <v>31300</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58830</v>
+        <v>56867</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06501986796084584</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04828592000963884</v>
+        <v>0.0472249679834679</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08876155867975689</v>
+        <v>0.08579916450643296</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -4264,19 +4264,19 @@
         <v>24810</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16895</v>
+        <v>16221</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36545</v>
+        <v>36072</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03575677280159105</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02434951669116706</v>
+        <v>0.02337748743535218</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05266903353151776</v>
+        <v>0.05198806085730551</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>64</v>
@@ -4285,19 +4285,19 @@
         <v>67904</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>52998</v>
+        <v>53307</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>86505</v>
+        <v>86144</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05005328110438288</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03906559631260248</v>
+        <v>0.03929365997235262</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06376418340193342</v>
+        <v>0.06349812307124619</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>619694</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>603958</v>
+        <v>605921</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>630785</v>
+        <v>631488</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9349801320391542</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.911238441320243</v>
+        <v>0.9142008354935669</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.951714079990361</v>
+        <v>0.952775032016532</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>613</v>
@@ -4335,19 +4335,19 @@
         <v>669043</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>657308</v>
+        <v>657781</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>676958</v>
+        <v>677632</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9642432271984089</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9473309664684829</v>
+        <v>0.9480119391426944</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9756504833088331</v>
+        <v>0.9766225125646477</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1190</v>
@@ -4356,19 +4356,19 @@
         <v>1288737</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1270136</v>
+        <v>1270497</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1303643</v>
+        <v>1303334</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9499467188956171</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9362358165980668</v>
+        <v>0.9365018769287539</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9609344036873976</v>
+        <v>0.9607063400276473</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>23797</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15294</v>
+        <v>15160</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35540</v>
+        <v>36042</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03062839836731439</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01968437440864175</v>
+        <v>0.01951217723977465</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04574205563533786</v>
+        <v>0.0463873935091758</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -4481,19 +4481,19 @@
         <v>29400</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19760</v>
+        <v>20119</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41250</v>
+        <v>41354</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03578012027404799</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02404796899020733</v>
+        <v>0.02448511510216304</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05020245377578665</v>
+        <v>0.0503280957775793</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -4502,19 +4502,19 @@
         <v>53197</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>38905</v>
+        <v>39683</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70126</v>
+        <v>69397</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03327629449723742</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02433596174631624</v>
+        <v>0.02482261456594435</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04386550238936223</v>
+        <v>0.04340950159683749</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>753175</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>741432</v>
+        <v>740930</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>761678</v>
+        <v>761812</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9693716016326857</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9542579443646622</v>
+        <v>0.953612606490824</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9803156255913582</v>
+        <v>0.9804878227602254</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>729</v>
@@ -4552,19 +4552,19 @@
         <v>792279</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>780429</v>
+        <v>780325</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>801919</v>
+        <v>801560</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.964219879725952</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9497975462242133</v>
+        <v>0.9496719042224208</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9759520310097927</v>
+        <v>0.9755148848978369</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1423</v>
@@ -4573,19 +4573,19 @@
         <v>1545454</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1528525</v>
+        <v>1529254</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1559746</v>
+        <v>1558968</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9667237055027625</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9561344976106377</v>
+        <v>0.9565904984031626</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9756640382536838</v>
+        <v>0.9751773854340556</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>180488</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>153986</v>
+        <v>155433</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>207854</v>
+        <v>209953</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05277435208726083</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04502497499572403</v>
+        <v>0.04544814033705339</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06077608485426605</v>
+        <v>0.06138974272855036</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>159</v>
@@ -4698,19 +4698,19 @@
         <v>170460</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>148462</v>
+        <v>147936</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>196412</v>
+        <v>199360</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0480282656896413</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04183017457217149</v>
+        <v>0.04168181964496705</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05534014423076206</v>
+        <v>0.05617083264478458</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>325</v>
@@ -4719,19 +4719,19 @@
         <v>350949</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>313249</v>
+        <v>317232</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>388440</v>
+        <v>390457</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05035732682810355</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04494774127067262</v>
+        <v>0.04551933752117942</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05573682442305803</v>
+        <v>0.05602626753457222</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3239515</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3212149</v>
+        <v>3210050</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3266017</v>
+        <v>3264570</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9472256479127391</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.939223915145734</v>
+        <v>0.9386102572714499</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.954975025004276</v>
+        <v>0.9545518596629465</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3130</v>
@@ -4769,19 +4769,19 @@
         <v>3378710</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3352758</v>
+        <v>3349810</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3400708</v>
+        <v>3401234</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9519717343103588</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9446598557692379</v>
+        <v>0.9438291673552155</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9581698254278285</v>
+        <v>0.958318180355033</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6167</v>
@@ -4790,19 +4790,19 @@
         <v>6618224</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6580733</v>
+        <v>6578716</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6655924</v>
+        <v>6651941</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9496426731718964</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9442631755769421</v>
+        <v>0.9439737324654277</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9550522587293274</v>
+        <v>0.9544806624788207</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>12874</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6356</v>
+        <v>6532</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21738</v>
+        <v>21948</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04382501267032005</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02163774898326434</v>
+        <v>0.0222351016008519</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07399828690681824</v>
+        <v>0.07471226850619671</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -5159,19 +5159,19 @@
         <v>13039</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6739</v>
+        <v>7408</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23511</v>
+        <v>23633</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04516400340961884</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02334068749449263</v>
+        <v>0.02565919929733145</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08143570350558256</v>
+        <v>0.08185803274723648</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -5180,19 +5180,19 @@
         <v>25913</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16761</v>
+        <v>16415</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37990</v>
+        <v>36764</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04448869427598091</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02877531276513824</v>
+        <v>0.02818234114132444</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06522256550820155</v>
+        <v>0.06311807656296872</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>280887</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>272023</v>
+        <v>271813</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>287405</v>
+        <v>287229</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.95617498732968</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9260017130931819</v>
+        <v>0.9252877314938035</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9783622510167358</v>
+        <v>0.9777648983991482</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>266</v>
@@ -5230,19 +5230,19 @@
         <v>275664</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>265192</v>
+        <v>265070</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>281964</v>
+        <v>281295</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9548359965903812</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9185642964944173</v>
+        <v>0.9181419672527633</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9766593125055073</v>
+        <v>0.9743408007026686</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>519</v>
@@ -5251,19 +5251,19 @@
         <v>556551</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>544474</v>
+        <v>545700</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>565703</v>
+        <v>566049</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9555113057240191</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9347774344917984</v>
+        <v>0.9368819234370317</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9712246872348616</v>
+        <v>0.9718176588586759</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>35364</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25909</v>
+        <v>25446</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48564</v>
+        <v>48220</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07036631905877558</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05155190979678641</v>
+        <v>0.05063134751303745</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09662987628790749</v>
+        <v>0.09594553458337345</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -5376,19 +5376,19 @@
         <v>28885</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19080</v>
+        <v>19390</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41388</v>
+        <v>42503</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05522038861029988</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03647556903532253</v>
+        <v>0.03706912734182694</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07912245363069563</v>
+        <v>0.08125413022100483</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -5397,19 +5397,19 @@
         <v>64249</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49760</v>
+        <v>49611</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79535</v>
+        <v>81391</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06264192811594464</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04851551939400377</v>
+        <v>0.0483702570635492</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07754515973168494</v>
+        <v>0.07935473781316242</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>467211</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>454011</v>
+        <v>454355</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>476666</v>
+        <v>477129</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9296336809412244</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9033701237120932</v>
+        <v>0.9040544654166268</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9484480902032136</v>
+        <v>0.9493686524869627</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>458</v>
@@ -5447,19 +5447,19 @@
         <v>494199</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>481696</v>
+        <v>480581</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>504004</v>
+        <v>503694</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9447796113897001</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9208775463693046</v>
+        <v>0.9187458697789954</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9635244309646777</v>
+        <v>0.9629308726581733</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>898</v>
@@ -5468,19 +5468,19 @@
         <v>961410</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>946124</v>
+        <v>944268</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>975899</v>
+        <v>976048</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9373580718840554</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9224548402683151</v>
+        <v>0.9206452621868376</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9514844806059963</v>
+        <v>0.9516297429364509</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>17705</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10975</v>
+        <v>10720</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25698</v>
+        <v>26395</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05557806727040616</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03445232803913131</v>
+        <v>0.03364954593508426</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08066954151394763</v>
+        <v>0.08285525474850319</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -5593,19 +5593,19 @@
         <v>9592</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4167</v>
+        <v>4215</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18028</v>
+        <v>18718</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02852106045003463</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01239042753931407</v>
+        <v>0.01253226376612886</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05360550279048483</v>
+        <v>0.05565593881595114</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -5614,19 +5614,19 @@
         <v>27297</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17714</v>
+        <v>18353</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38203</v>
+        <v>39298</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04168300506555441</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02704880376341984</v>
+        <v>0.02802474958354323</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05833603556334212</v>
+        <v>0.06000910150496665</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>300860</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>292867</v>
+        <v>292170</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>307590</v>
+        <v>307845</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9444219327295938</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9193304584860523</v>
+        <v>0.9171447452514968</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9655476719608688</v>
+        <v>0.9663504540649158</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>324</v>
@@ -5664,19 +5664,19 @@
         <v>326717</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>318281</v>
+        <v>317591</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>332142</v>
+        <v>332094</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9714789395499653</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9463944972095153</v>
+        <v>0.9443440611840489</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9876095724606859</v>
+        <v>0.9874677362338712</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>639</v>
@@ -5685,19 +5685,19 @@
         <v>627577</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>616671</v>
+        <v>615576</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>637160</v>
+        <v>636521</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9583169949344456</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9416639644366577</v>
+        <v>0.9399908984950333</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9729511962365801</v>
+        <v>0.9719752504164562</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>24682</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16617</v>
+        <v>16593</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35539</v>
+        <v>35299</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.066713477114019</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04491492684030007</v>
+        <v>0.04485125279474449</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09606150955893408</v>
+        <v>0.09541173672277051</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -5810,19 +5810,19 @@
         <v>41009</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27305</v>
+        <v>28410</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54923</v>
+        <v>55462</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1058883012678259</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07050300241971261</v>
+        <v>0.07335712866942634</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1418156841566735</v>
+        <v>0.1432080015880389</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -5831,19 +5831,19 @@
         <v>65690</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51005</v>
+        <v>51521</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83720</v>
+        <v>85513</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08674887306202034</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06735638481160623</v>
+        <v>0.06803661275478537</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1105584352313853</v>
+        <v>0.1129265378979541</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>345282</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>334425</v>
+        <v>334665</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>353347</v>
+        <v>353371</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.933286522885981</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9039384904410662</v>
+        <v>0.9045882632772296</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9550850731596999</v>
+        <v>0.9551487472052556</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>325</v>
@@ -5881,19 +5881,19 @@
         <v>346274</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>332360</v>
+        <v>331821</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>359978</v>
+        <v>358873</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8941116987321741</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.858184315843326</v>
+        <v>0.8567919984119615</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9294969975802873</v>
+        <v>0.9266428713305737</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>653</v>
@@ -5902,19 +5902,19 @@
         <v>691557</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>673527</v>
+        <v>671734</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>706242</v>
+        <v>705726</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9132511269379796</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8894415647686147</v>
+        <v>0.8870734621020456</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9326436151883934</v>
+        <v>0.9319633872452147</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>12741</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6686</v>
+        <v>6697</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21197</v>
+        <v>20632</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06032161377678545</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03165477367770068</v>
+        <v>0.03170423879417519</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1003536453688356</v>
+        <v>0.09768166440798809</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -6027,19 +6027,19 @@
         <v>9559</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4897</v>
+        <v>4334</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17027</v>
+        <v>16945</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04373251509282689</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02240407447450101</v>
+        <v>0.01982528262847564</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0778953011141309</v>
+        <v>0.07752267761616291</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -6048,19 +6048,19 @@
         <v>22301</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14382</v>
+        <v>14675</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32787</v>
+        <v>32737</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05188491336934622</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03346066159976564</v>
+        <v>0.03414341787504771</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07628365857513378</v>
+        <v>0.07616646229537866</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>198480</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>190024</v>
+        <v>190589</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204535</v>
+        <v>204524</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9396783862232145</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8996463546311644</v>
+        <v>0.9023183355920119</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9683452263222992</v>
+        <v>0.9682957612058248</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>214</v>
@@ -6098,19 +6098,19 @@
         <v>209028</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>201560</v>
+        <v>201642</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>213690</v>
+        <v>214253</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9562674849071731</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9221046988858692</v>
+        <v>0.9224773223838371</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.977595925525499</v>
+        <v>0.9801747173715244</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>413</v>
@@ -6119,19 +6119,19 @@
         <v>407507</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>397021</v>
+        <v>397071</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>415426</v>
+        <v>415133</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9481150866306538</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9237163414248662</v>
+        <v>0.9238335377046213</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9665393384002344</v>
+        <v>0.9658565821249523</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>12751</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7228</v>
+        <v>6938</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21789</v>
+        <v>21693</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04845906840660431</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02746986944738</v>
+        <v>0.02636637922000501</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08280880005743103</v>
+        <v>0.08244502770677083</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -6244,19 +6244,19 @@
         <v>20686</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12874</v>
+        <v>12946</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30911</v>
+        <v>32356</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07574082366062893</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04713704386071765</v>
+        <v>0.04740081952323355</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1131808252940358</v>
+        <v>0.1184707778394405</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -6265,19 +6265,19 @@
         <v>33437</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23255</v>
+        <v>22311</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48660</v>
+        <v>46869</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06235412359369081</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04336774125954096</v>
+        <v>0.04160709833082536</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09074372513129979</v>
+        <v>0.08740362709421937</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>250372</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>241334</v>
+        <v>241430</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>255895</v>
+        <v>256185</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9515409315933957</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9171911999425689</v>
+        <v>0.9175549722932292</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9725301305526199</v>
+        <v>0.9736336207799949</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>245</v>
@@ -6315,19 +6315,19 @@
         <v>252429</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>242204</v>
+        <v>240759</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>260241</v>
+        <v>260169</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.924259176339371</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8868191747059643</v>
+        <v>0.8815292221605604</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9528629561392824</v>
+        <v>0.9525991804767667</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>491</v>
@@ -6336,19 +6336,19 @@
         <v>502801</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>487578</v>
+        <v>489369</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>512983</v>
+        <v>513927</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9376458764063091</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9092562748687002</v>
+        <v>0.9125963729057808</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.956632258740459</v>
+        <v>0.9583929016691749</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>35368</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25120</v>
+        <v>25436</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>49021</v>
+        <v>48283</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05386932012841224</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03825976151349194</v>
+        <v>0.03874172863333231</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07466307840311932</v>
+        <v>0.07353921650601628</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -6461,19 +6461,19 @@
         <v>25547</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16082</v>
+        <v>16184</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38171</v>
+        <v>38380</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03695521274383872</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02326355485299468</v>
+        <v>0.0234118237378237</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0552173285318666</v>
+        <v>0.05551917870995269</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>54</v>
@@ -6482,19 +6482,19 @@
         <v>60915</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46183</v>
+        <v>45835</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77577</v>
+        <v>77032</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04519431650814103</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03426381680026339</v>
+        <v>0.03400567075699008</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05755607185269577</v>
+        <v>0.05715140045077451</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>621190</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>607537</v>
+        <v>608275</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>631438</v>
+        <v>631122</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9461306798715877</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9253369215968807</v>
+        <v>0.9264607834939835</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9617402384865084</v>
+        <v>0.9612582713666676</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>625</v>
@@ -6532,19 +6532,19 @@
         <v>665747</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>653123</v>
+        <v>652914</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>675212</v>
+        <v>675110</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9630447872561613</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9447826714681344</v>
+        <v>0.9444808212900477</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9767364451470054</v>
+        <v>0.9765881762621766</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1172</v>
@@ -6553,19 +6553,19 @@
         <v>1286937</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1270275</v>
+        <v>1270820</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1301669</v>
+        <v>1302017</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.954805683491859</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.942443928147304</v>
+        <v>0.9428485995492252</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9657361831997361</v>
+        <v>0.9659943292430095</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>51615</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39003</v>
+        <v>39248</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>68561</v>
+        <v>67919</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06629306608013207</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0500953981476592</v>
+        <v>0.05040895769708323</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.088059242339093</v>
+        <v>0.08723414229221066</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -6678,19 +6678,19 @@
         <v>42667</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29965</v>
+        <v>31018</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>58407</v>
+        <v>57057</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05164491996732955</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03626990825926284</v>
+        <v>0.03754483457187179</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07069619541254207</v>
+        <v>0.06906203029259998</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>86</v>
@@ -6699,19 +6699,19 @@
         <v>94282</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>74180</v>
+        <v>75433</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>113262</v>
+        <v>116557</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0587518198000738</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04622518396191016</v>
+        <v>0.04700600996264184</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07057894042773982</v>
+        <v>0.0726326054160786</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>726968</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>710022</v>
+        <v>710664</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>739580</v>
+        <v>739335</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9337069339198679</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9119407576609074</v>
+        <v>0.9127658577077892</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9499046018523408</v>
+        <v>0.9495910423029164</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>719</v>
@@ -6749,19 +6749,19 @@
         <v>783500</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>767760</v>
+        <v>769110</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>796202</v>
+        <v>795149</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9483550800326704</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9293038045874578</v>
+        <v>0.9309379697074002</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9637300917407371</v>
+        <v>0.9624551654281285</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1419</v>
@@ -6770,19 +6770,19 @@
         <v>1510468</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1491488</v>
+        <v>1488193</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1530570</v>
+        <v>1529317</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9412481801999262</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9294210595722602</v>
+        <v>0.9273673945839214</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9537748160380898</v>
+        <v>0.9529939900373577</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>203100</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>176709</v>
+        <v>177323</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>233037</v>
+        <v>230818</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0598347614364412</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05205982256876356</v>
+        <v>0.05224068825749241</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06865452163784481</v>
+        <v>0.06800057011418693</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>162</v>
@@ -6895,19 +6895,19 @@
         <v>190984</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>162979</v>
+        <v>163423</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>221145</v>
+        <v>220999</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05388117087495888</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04598019206020279</v>
+        <v>0.0461056595878053</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06239024958886035</v>
+        <v>0.06234919574456235</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>365</v>
@@ -6916,19 +6916,19 @@
         <v>394084</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>354085</v>
+        <v>355729</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>435513</v>
+        <v>432931</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05679353370880336</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05102907691682794</v>
+        <v>0.05126600867880824</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06276412468613551</v>
+        <v>0.06239197226252492</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3191250</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3161313</v>
+        <v>3163532</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3217641</v>
+        <v>3217027</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9401652385635588</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9313454783621552</v>
+        <v>0.9319994298858131</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9479401774312365</v>
+        <v>0.9477593117425076</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3176</v>
@@ -6966,19 +6966,19 @@
         <v>3353558</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3323397</v>
+        <v>3323543</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3381563</v>
+        <v>3381119</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9461188291250411</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9376097504111398</v>
+        <v>0.9376508042554379</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9540198079397972</v>
+        <v>0.9538943404121949</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6204</v>
@@ -6987,19 +6987,19 @@
         <v>6544808</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6503379</v>
+        <v>6505961</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6584807</v>
+        <v>6583163</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9432064662911966</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9372358753138644</v>
+        <v>0.9376080277374751</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.948970923083172</v>
+        <v>0.9487339913211917</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>18277</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12080</v>
+        <v>12421</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26990</v>
+        <v>27283</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05732390158112206</v>
+        <v>0.05732390158112208</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03788821022523634</v>
+        <v>0.03895674276092672</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08465056829583924</v>
+        <v>0.08556676232971272</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -7356,19 +7356,19 @@
         <v>11104</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6630</v>
+        <v>6758</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17197</v>
+        <v>17477</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03513197714734721</v>
+        <v>0.0351319771473472</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02097721428503177</v>
+        <v>0.02138109677307888</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05440942941959252</v>
+        <v>0.05529622882580255</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -7377,19 +7377,19 @@
         <v>29381</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21412</v>
+        <v>21644</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39095</v>
+        <v>39339</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04627660521879281</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0337243728966253</v>
+        <v>0.03409073854749811</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06157672441815521</v>
+        <v>0.06196060676257307</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>300568</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>291855</v>
+        <v>291562</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>306765</v>
+        <v>306424</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9426760984188778</v>
+        <v>0.942676098418878</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9153494317041607</v>
+        <v>0.9144332376702872</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9621117897747635</v>
+        <v>0.9610432572390731</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>518</v>
@@ -7427,19 +7427,19 @@
         <v>304957</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298864</v>
+        <v>298584</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>309431</v>
+        <v>309303</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9648680228526527</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9455905705804075</v>
+        <v>0.9447037711741973</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9790227857149677</v>
+        <v>0.978618903226921</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>825</v>
@@ -7448,19 +7448,19 @@
         <v>605525</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>595811</v>
+        <v>595567</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>613494</v>
+        <v>613262</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9537233947812072</v>
+        <v>0.9537233947812074</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9384232755818448</v>
+        <v>0.9380393932374266</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9662756271033746</v>
+        <v>0.9659092614525018</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>32880</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22682</v>
+        <v>22729</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45628</v>
+        <v>45789</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06207725585283493</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04282438607244055</v>
+        <v>0.04291273725428064</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08614545718671077</v>
+        <v>0.08644898367134719</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -7573,19 +7573,19 @@
         <v>24390</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16889</v>
+        <v>17775</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34299</v>
+        <v>33726</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04473414184601979</v>
+        <v>0.0447341418460198</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03097708642675395</v>
+        <v>0.03260262708038753</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06291023138222961</v>
+        <v>0.06185842160194679</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -7594,19 +7594,19 @@
         <v>57269</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45446</v>
+        <v>45081</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72849</v>
+        <v>72620</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05328021802335137</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0422801128538955</v>
+        <v>0.04194035244090498</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06777484680074565</v>
+        <v>0.06756192049840538</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>496780</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>484032</v>
+        <v>483871</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>506978</v>
+        <v>506931</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.937922744147165</v>
+        <v>0.9379227441471651</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9138545428132895</v>
+        <v>0.9135510163286522</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9571756139275596</v>
+        <v>0.9570872627457192</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>678</v>
@@ -7644,19 +7644,19 @@
         <v>520823</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>510914</v>
+        <v>511487</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>528324</v>
+        <v>527438</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9552658581539801</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9370897686177698</v>
+        <v>0.9381415783980533</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9690229135732459</v>
+        <v>0.9673973729196127</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1028</v>
@@ -7665,19 +7665,19 @@
         <v>1017604</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1002024</v>
+        <v>1002253</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1029427</v>
+        <v>1029792</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9467197819766486</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9322251531992548</v>
+        <v>0.9324380795015949</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9577198871461049</v>
+        <v>0.9580596475590952</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>19431</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12779</v>
+        <v>13538</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26415</v>
+        <v>27155</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06149115626677062</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04044017491958122</v>
+        <v>0.04284157910255123</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08359504155949518</v>
+        <v>0.08593504015059983</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -7790,19 +7790,19 @@
         <v>24857</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17939</v>
+        <v>19094</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32796</v>
+        <v>32735</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06974943460451448</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05033520184095545</v>
+        <v>0.05357719985267835</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09202499822099819</v>
+        <v>0.09185372124322204</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -7811,19 +7811,19 @@
         <v>44288</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35032</v>
+        <v>34594</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55102</v>
+        <v>54565</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06586832275140383</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05210209015821005</v>
+        <v>0.0514502447074435</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08195082719928956</v>
+        <v>0.08115253581718945</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>296562</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>289578</v>
+        <v>288838</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>303214</v>
+        <v>302455</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9385088437332294</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9164049584405046</v>
+        <v>0.9140649598494001</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9595598250804186</v>
+        <v>0.9571584208974487</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>488</v>
@@ -7861,19 +7861,19 @@
         <v>331524</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>323585</v>
+        <v>323646</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>338442</v>
+        <v>337287</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9302505653954856</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9079750017790018</v>
+        <v>0.9081462787567778</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9496647981590446</v>
+        <v>0.9464228001473213</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>817</v>
@@ -7882,19 +7882,19 @@
         <v>628087</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>617273</v>
+        <v>617810</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>637343</v>
+        <v>637781</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9341316772485964</v>
+        <v>0.9341316772485961</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9180491728007104</v>
+        <v>0.9188474641828104</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.94789790984179</v>
+        <v>0.9485497552925561</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>21776</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15358</v>
+        <v>14597</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31485</v>
+        <v>30474</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05835924725485962</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04115958436519996</v>
+        <v>0.03911896305022814</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08437742261423679</v>
+        <v>0.08166709906881335</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -8007,19 +8007,19 @@
         <v>19940</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14020</v>
+        <v>13772</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31317</v>
+        <v>29189</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04725628627321126</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03322617890046706</v>
+        <v>0.03263856445350595</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07421872872062951</v>
+        <v>0.06917476084216817</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>68</v>
@@ -8028,19 +8028,19 @@
         <v>41717</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31672</v>
+        <v>31372</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55504</v>
+        <v>54586</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05246692936421176</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03983379614956743</v>
+        <v>0.03945605994783583</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06980704049724851</v>
+        <v>0.0686526964672609</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>351369</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>341660</v>
+        <v>342671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>357787</v>
+        <v>358548</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9416407527451405</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9156225773857629</v>
+        <v>0.9183329009311867</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9588404156347998</v>
+        <v>0.9608810369497714</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>562</v>
@@ -8078,19 +8078,19 @@
         <v>402021</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>390644</v>
+        <v>392772</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>407941</v>
+        <v>408189</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9527437137267888</v>
+        <v>0.9527437137267889</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9257812712793709</v>
+        <v>0.9308252391578318</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.966773821099533</v>
+        <v>0.9673614355464941</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>823</v>
@@ -8099,19 +8099,19 @@
         <v>753390</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>739603</v>
+        <v>740521</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>763435</v>
+        <v>763735</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9475330706357883</v>
+        <v>0.9475330706357882</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9301929595027529</v>
+        <v>0.9313473035327383</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9601662038504329</v>
+        <v>0.960543940052164</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>6777</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3688</v>
+        <v>3686</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11419</v>
+        <v>11481</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03295274159583727</v>
+        <v>0.03295274159583728</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01793354510902962</v>
+        <v>0.01792143344190406</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05552075800348813</v>
+        <v>0.05582172076069269</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -8224,19 +8224,19 @@
         <v>9401</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6224</v>
+        <v>6233</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13744</v>
+        <v>13750</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04137546679937323</v>
+        <v>0.04137546679937321</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02739444603015032</v>
+        <v>0.0274328438020876</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06049003771708961</v>
+        <v>0.06051402056360169</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -8245,19 +8245,19 @@
         <v>16178</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11748</v>
+        <v>11668</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21436</v>
+        <v>22502</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0373737578820344</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02713882970811832</v>
+        <v>0.02695412124251589</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04951929671818268</v>
+        <v>0.05198176177619725</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>198888</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>194246</v>
+        <v>194184</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>201977</v>
+        <v>201979</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9670472584041626</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9444792419965113</v>
+        <v>0.9441782792393072</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9820664548909703</v>
+        <v>0.9820785665580959</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>468</v>
@@ -8295,19 +8295,19 @@
         <v>217814</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>213471</v>
+        <v>213465</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>220991</v>
+        <v>220982</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9586245332006269</v>
+        <v>0.9586245332006268</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9395099622829105</v>
+        <v>0.9394859794363987</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9726055539698497</v>
+        <v>0.9725671561979125</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>734</v>
@@ -8316,19 +8316,19 @@
         <v>416701</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>411443</v>
+        <v>410377</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>421131</v>
+        <v>421211</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9626262421179658</v>
+        <v>0.9626262421179655</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9504807032818176</v>
+        <v>0.9480182382238027</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9728611702918818</v>
+        <v>0.9730458787574841</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>16330</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10897</v>
+        <v>11472</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22143</v>
+        <v>22933</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06032395758774289</v>
+        <v>0.0603239575877429</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04025514848864048</v>
+        <v>0.0423775008735243</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0817977662356016</v>
+        <v>0.08471529055488743</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -8441,19 +8441,19 @@
         <v>14438</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10621</v>
+        <v>10216</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20308</v>
+        <v>20460</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05473991924426112</v>
+        <v>0.05473991924426108</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04026859706770473</v>
+        <v>0.03873289298781107</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07699648081882533</v>
+        <v>0.0775731268284464</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>71</v>
@@ -8462,19 +8462,19 @@
         <v>30768</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24470</v>
+        <v>23659</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>38959</v>
+        <v>38986</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05756828033801987</v>
+        <v>0.05756828033801986</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04578467571452623</v>
+        <v>0.04426728376412967</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07289544750003643</v>
+        <v>0.07294555464842309</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>254377</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>248564</v>
+        <v>247774</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>259810</v>
+        <v>259235</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9396760424122572</v>
+        <v>0.9396760424122571</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9182022337643981</v>
+        <v>0.9152847094451124</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9597448515113595</v>
+        <v>0.9576224991264758</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>423</v>
@@ -8512,19 +8512,19 @@
         <v>249312</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>243442</v>
+        <v>243290</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>253129</v>
+        <v>253534</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9452600807557391</v>
+        <v>0.9452600807557388</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9230035191811746</v>
+        <v>0.9224268731715545</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9597314029322952</v>
+        <v>0.961267107012189</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>760</v>
@@ -8533,19 +8533,19 @@
         <v>503689</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>495498</v>
+        <v>495471</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>509987</v>
+        <v>510798</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9424317196619801</v>
+        <v>0.9424317196619802</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9271045524999634</v>
+        <v>0.9270544453515769</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9542153242854737</v>
+        <v>0.9557327162358703</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>41945</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30660</v>
+        <v>31115</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56161</v>
+        <v>55224</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05828171421055871</v>
+        <v>0.05828171421055873</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04260220035317519</v>
+        <v>0.04323353483756193</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07803531655628215</v>
+        <v>0.07673327272510448</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>65</v>
@@ -8658,19 +8658,19 @@
         <v>46665</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35654</v>
+        <v>36802</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>58830</v>
+        <v>58550</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06044182169703104</v>
+        <v>0.06044182169703105</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04618032825615801</v>
+        <v>0.04766776728353843</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07619843708196478</v>
+        <v>0.07583591658961832</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>109</v>
@@ -8679,19 +8679,19 @@
         <v>88609</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>72704</v>
+        <v>73701</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>106825</v>
+        <v>105044</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.05939968473007393</v>
+        <v>0.05939968473007394</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04873782208462681</v>
+        <v>0.04940595270407382</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07161062668376054</v>
+        <v>0.07041676320686177</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>677742</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>663526</v>
+        <v>664463</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>689027</v>
+        <v>688572</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9417182857894413</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9219646834437175</v>
+        <v>0.9232667272748952</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9573977996468247</v>
+        <v>0.956766465162438</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>895</v>
@@ -8729,19 +8729,19 @@
         <v>725392</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>713227</v>
+        <v>713507</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>736403</v>
+        <v>735255</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9395581783029688</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9238015629180354</v>
+        <v>0.9241640834103816</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9538196717438422</v>
+        <v>0.9523322327164617</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1450</v>
@@ -8750,19 +8750,19 @@
         <v>1403135</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1384919</v>
+        <v>1386700</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1419040</v>
+        <v>1418043</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9406003152699262</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9283893733162397</v>
+        <v>0.9295832367931383</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9512621779153733</v>
+        <v>0.9505940472959262</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>46817</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36697</v>
+        <v>35974</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>59482</v>
+        <v>58816</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05866239610688864</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04598184536393044</v>
+        <v>0.04507620563084231</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07453251563363358</v>
+        <v>0.07369813007841731</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>77</v>
@@ -8875,19 +8875,19 @@
         <v>48051</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37576</v>
+        <v>38392</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59802</v>
+        <v>59539</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05794256551054277</v>
+        <v>0.05794256551054278</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04531036843680674</v>
+        <v>0.04629456228628363</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07211231245091741</v>
+        <v>0.07179471289105886</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>139</v>
@@ -8896,19 +8896,19 @@
         <v>94868</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>80443</v>
+        <v>79486</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>110713</v>
+        <v>110009</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.05829557562976898</v>
+        <v>0.05829557562976896</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04943165087901825</v>
+        <v>0.04884349937716431</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06803218139730555</v>
+        <v>0.06759970328415647</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>751255</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>738590</v>
+        <v>739256</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>761375</v>
+        <v>762098</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9413376038931112</v>
+        <v>0.9413376038931113</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9254674843663663</v>
+        <v>0.9263018699215826</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9540181546360694</v>
+        <v>0.9549237943691576</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>982</v>
@@ -8946,19 +8946,19 @@
         <v>781243</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>769492</v>
+        <v>769755</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>791718</v>
+        <v>790902</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9420574344894572</v>
+        <v>0.9420574344894573</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.927887687549083</v>
+        <v>0.9282052871089411</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9546896315631935</v>
+        <v>0.9537054377137164</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1682</v>
@@ -8967,19 +8967,19 @@
         <v>1532498</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1516653</v>
+        <v>1517357</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1546923</v>
+        <v>1547880</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9417044243702313</v>
+        <v>0.9417044243702311</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9319678186026942</v>
+        <v>0.9324002967158436</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9505683491209816</v>
+        <v>0.9511565006228357</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>204233</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>179869</v>
+        <v>181418</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>229822</v>
+        <v>231258</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0578273898244307</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05092877560751885</v>
+        <v>0.05136723651055457</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06507268869030432</v>
+        <v>0.06547926145113234</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>345</v>
@@ -9092,19 +9092,19 @@
         <v>198846</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>178613</v>
+        <v>176613</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>221677</v>
+        <v>221040</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.05328229610739405</v>
+        <v>0.05328229610739404</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04786084518390744</v>
+        <v>0.04732481572855537</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05940008078495942</v>
+        <v>0.05922947699358394</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>615</v>
@@ -9113,19 +9113,19 @@
         <v>403079</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>367823</v>
+        <v>370603</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>438124</v>
+        <v>437519</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05549222081429454</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05063851515737276</v>
+        <v>0.05102124525646379</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06031684192540772</v>
+        <v>0.06023362422898087</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3327542</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3301953</v>
+        <v>3300517</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3351906</v>
+        <v>3350357</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9421726101755693</v>
+        <v>0.9421726101755694</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.934927311309696</v>
+        <v>0.9345207385488676</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.949071224392481</v>
+        <v>0.9486327634894454</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5014</v>
@@ -9163,19 +9163,19 @@
         <v>3533087</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3510256</v>
+        <v>3510893</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3553320</v>
+        <v>3555320</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9467177038926059</v>
+        <v>0.946717703892606</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9405999192150404</v>
+        <v>0.9407705230064159</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9521391548160925</v>
+        <v>0.952675184271444</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8119</v>
@@ -9184,19 +9184,19 @@
         <v>6860628</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6825583</v>
+        <v>6826188</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6895884</v>
+        <v>6893104</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9445077791857055</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.939683158074592</v>
+        <v>0.9397663757710191</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9493614848426271</v>
+        <v>0.9489787547435362</v>
       </c>
     </row>
     <row r="30">
